--- a/data/trans_orig/P23_1_2016_2023_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>106324</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86814</v>
+        <v>88282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124923</v>
+        <v>126536</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2477876093871199</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2023196670855362</v>
+        <v>0.2057407774315553</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2911332271658344</v>
+        <v>0.2948931286412664</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -763,19 +763,19 @@
         <v>66481</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52948</v>
+        <v>52871</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83128</v>
+        <v>82285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1915587278636338</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1525649543137255</v>
+        <v>0.152341563712863</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2395243931878362</v>
+        <v>0.2370940660560968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -784,19 +784,19 @@
         <v>172805</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>150803</v>
+        <v>149814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>195521</v>
+        <v>197279</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2226448061435839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1942964233014891</v>
+        <v>0.193022599587443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2519117812076384</v>
+        <v>0.2541775766298953</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>322768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>304169</v>
+        <v>302556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>342278</v>
+        <v>340810</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7522123906128801</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7088667728341655</v>
+        <v>0.7051068713587336</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7976803329144638</v>
+        <v>0.7942592225684445</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -834,19 +834,19 @@
         <v>280574</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263927</v>
+        <v>264770</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>294107</v>
+        <v>294184</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8084412721363662</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7604756068121644</v>
+        <v>0.7629059339439032</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8474350456862748</v>
+        <v>0.8476584362871374</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>565</v>
@@ -855,19 +855,19 @@
         <v>603342</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>580626</v>
+        <v>578868</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>625344</v>
+        <v>626333</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7773551938564162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7480882187923614</v>
+        <v>0.7458224233701046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8057035766985108</v>
+        <v>0.8069774004125565</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>104594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>87887</v>
+        <v>86896</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123275</v>
+        <v>123300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2780600753063495</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2336464045904408</v>
+        <v>0.2310122904454432</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3277238422129145</v>
+        <v>0.3277905965797336</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -980,19 +980,19 @@
         <v>100057</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>83100</v>
+        <v>84368</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119002</v>
+        <v>118055</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2695157552551089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2238414024860295</v>
+        <v>0.2272557174456074</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.320548864096951</v>
+        <v>0.3179970115516705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>192</v>
@@ -1001,19 +1001,19 @@
         <v>204650</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>180127</v>
+        <v>178057</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>230109</v>
+        <v>229671</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2738159768955062</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.241004854100438</v>
+        <v>0.2382344196017784</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3078783384409305</v>
+        <v>0.3072934742721494</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>271561</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>252880</v>
+        <v>252855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>288268</v>
+        <v>289259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7219399246936504</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6722761577870855</v>
+        <v>0.6722094034202665</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7663535954095594</v>
+        <v>0.7689877095545568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>255</v>
@@ -1051,19 +1051,19 @@
         <v>271189</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>252244</v>
+        <v>253191</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>288146</v>
+        <v>286878</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.730484244744891</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6794511359030492</v>
+        <v>0.6820029884483294</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7761585975139706</v>
+        <v>0.7727442825543926</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>512</v>
@@ -1072,19 +1072,19 @@
         <v>542751</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>517292</v>
+        <v>517730</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>567274</v>
+        <v>569344</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7261840231044938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6921216615590694</v>
+        <v>0.6927065257278505</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.758995145899562</v>
+        <v>0.7617655803982216</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>216738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195509</v>
+        <v>194680</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>241080</v>
+        <v>238298</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4152749949392132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3745991113517295</v>
+        <v>0.3730107120341308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4619156526077492</v>
+        <v>0.4565838907845644</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -1197,19 +1197,19 @@
         <v>52503</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40797</v>
+        <v>40510</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64868</v>
+        <v>65491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3160504541895794</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2455828523731535</v>
+        <v>0.243852956685835</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.390481387650606</v>
+        <v>0.3942303382033486</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>250</v>
@@ -1218,19 +1218,19 @@
         <v>269241</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>242212</v>
+        <v>242985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>295381</v>
+        <v>294429</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3913177498352012</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3520343185852907</v>
+        <v>0.3531568257736463</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4293106030228583</v>
+        <v>0.4279272979774009</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>305176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>280834</v>
+        <v>283616</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>326405</v>
+        <v>327234</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5847250050607868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5380843473922506</v>
+        <v>0.5434161092154357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6254008886482705</v>
+        <v>0.6269892879658694</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -1268,19 +1268,19 @@
         <v>113620</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101255</v>
+        <v>100632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125326</v>
+        <v>125613</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6839495458104206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.609518612349394</v>
+        <v>0.6057696617966514</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7544171476268465</v>
+        <v>0.756147043314165</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>405</v>
@@ -1289,19 +1289,19 @@
         <v>418795</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>392655</v>
+        <v>393607</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>445824</v>
+        <v>445051</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6086822501647988</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5706893969771417</v>
+        <v>0.5720727020225989</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6479656814147093</v>
+        <v>0.6468431742263537</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>430194</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>396689</v>
+        <v>396888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>465200</v>
+        <v>462576</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.37448073392036</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3453150439636258</v>
+        <v>0.3454882482887031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4049532857951489</v>
+        <v>0.4026689167679151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>309</v>
@@ -1414,19 +1414,19 @@
         <v>315813</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>289507</v>
+        <v>289066</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>346614</v>
+        <v>343116</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3828282515085361</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3509398756996372</v>
+        <v>0.3504047773732816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.420164889285481</v>
+        <v>0.4159246684925921</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>715</v>
@@ -1435,19 +1435,19 @@
         <v>746007</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>706794</v>
+        <v>703519</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>790709</v>
+        <v>790472</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3779697106486035</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.358102034936235</v>
+        <v>0.3564426884463149</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4006179706157495</v>
+        <v>0.4004981958190324</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>718580</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>683574</v>
+        <v>686198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>752085</v>
+        <v>751886</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.62551926607964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.595046714204851</v>
+        <v>0.5973310832320848</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6546849560363741</v>
+        <v>0.6545117517112968</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>488</v>
@@ -1485,19 +1485,19 @@
         <v>509135</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>478334</v>
+        <v>481832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>535441</v>
+        <v>535882</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6171717484914639</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5798351107145191</v>
+        <v>0.584075331507408</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6490601243003628</v>
+        <v>0.6495952226267183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1184</v>
@@ -1506,19 +1506,19 @@
         <v>1227715</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1183013</v>
+        <v>1183250</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1266928</v>
+        <v>1270203</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6220302893513965</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5993820293842504</v>
+        <v>0.5995018041809677</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.641897965063765</v>
+        <v>0.6435573115536851</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>241223</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>217661</v>
+        <v>216718</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>266358</v>
+        <v>266408</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3886264895679605</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3506668068307939</v>
+        <v>0.3491468493235538</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.42912097757164</v>
+        <v>0.429201828580404</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>208</v>
@@ -1631,19 +1631,19 @@
         <v>215094</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>188150</v>
+        <v>190287</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>241981</v>
+        <v>241753</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.29178990819968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2552375649681985</v>
+        <v>0.2581367371345965</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3282628953172571</v>
+        <v>0.327954421140495</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>430</v>
@@ -1652,19 +1652,19 @@
         <v>456317</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>425026</v>
+        <v>421926</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>492615</v>
+        <v>495329</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3360558748029721</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3130117733814774</v>
+        <v>0.3107286249992949</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3627877303832836</v>
+        <v>0.3647862475354309</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>379483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>354348</v>
+        <v>354298</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>403045</v>
+        <v>403988</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6113735104320395</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5708790224283601</v>
+        <v>0.5707981714195961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6493331931692061</v>
+        <v>0.6508531506764462</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>490</v>
@@ -1702,19 +1702,19 @@
         <v>522061</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>495174</v>
+        <v>495402</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>549005</v>
+        <v>546868</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.70821009180032</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6717371046827428</v>
+        <v>0.6720455788595051</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7447624350318013</v>
+        <v>0.7418632628654036</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>865</v>
@@ -1723,19 +1723,19 @@
         <v>901544</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>865246</v>
+        <v>862532</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>932835</v>
+        <v>935935</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6639441251970279</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6372122696167165</v>
+        <v>0.6352137524645687</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6869882266185228</v>
+        <v>0.6892713750007048</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>71955</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58799</v>
+        <v>56681</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88238</v>
+        <v>86942</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2505875730181065</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2047718596391183</v>
+        <v>0.1973955701474995</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3072945909604968</v>
+        <v>0.3027803343543894</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -1848,19 +1848,19 @@
         <v>172030</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>149974</v>
+        <v>149226</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>198159</v>
+        <v>198543</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1593411980299606</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1389119450525689</v>
+        <v>0.1382197484438158</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1835431410595301</v>
+        <v>0.1838991434867559</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>233</v>
@@ -1869,19 +1869,19 @@
         <v>243985</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>214675</v>
+        <v>214974</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>273236</v>
+        <v>271734</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1785111016452492</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.157066642297174</v>
+        <v>0.1572857281716351</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1999126956490561</v>
+        <v>0.1988143557130819</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>215190</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198907</v>
+        <v>200203</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>228346</v>
+        <v>230464</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7494124269818935</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6927054090395033</v>
+        <v>0.6972196656456106</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7952281403608817</v>
+        <v>0.8026044298525005</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>826</v>
@@ -1919,19 +1919,19 @@
         <v>907600</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>881471</v>
+        <v>881087</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>929656</v>
+        <v>930404</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8406588019700394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8164568589404699</v>
+        <v>0.8161008565132443</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8610880549474311</v>
+        <v>0.8617802515561843</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1029</v>
@@ -1940,19 +1940,19 @@
         <v>1122790</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1093539</v>
+        <v>1095041</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1152100</v>
+        <v>1151801</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8214888983547508</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8000873043509433</v>
+        <v>0.8011856442869175</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.842933357702826</v>
+        <v>0.8427142718283647</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>1171026</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1116595</v>
+        <v>1112740</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1231118</v>
+        <v>1225620</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.346069940469465</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3299840062873319</v>
+        <v>0.3288447344843508</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3638285473200248</v>
+        <v>0.3622037620052934</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>893</v>
@@ -2065,19 +2065,19 @@
         <v>921979</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>872033</v>
+        <v>871690</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>974099</v>
+        <v>975636</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2614684016767285</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2473039649685615</v>
+        <v>0.2472067815248029</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2762495150329685</v>
+        <v>0.2766853583858882</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1983</v>
@@ -2086,19 +2086,19 @@
         <v>2093005</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2017301</v>
+        <v>2007009</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2171227</v>
+        <v>2166683</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3028976102720696</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2919417400083117</v>
+        <v>0.2904523036404058</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3142177166923744</v>
+        <v>0.3135601367415606</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>2212759</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2152667</v>
+        <v>2158165</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2267190</v>
+        <v>2271045</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.653930059530535</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.636171452679975</v>
+        <v>0.6377962379947063</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6700159937126681</v>
+        <v>0.6711552655156491</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2428</v>
@@ -2136,19 +2136,19 @@
         <v>2604178</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2552058</v>
+        <v>2550521</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2654124</v>
+        <v>2654467</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7385315983232714</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7237504849670312</v>
+        <v>0.7233146416141115</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7526960350314384</v>
+        <v>0.7527932184751968</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4560</v>
@@ -2157,19 +2157,19 @@
         <v>4816938</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4738716</v>
+        <v>4743260</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4892642</v>
+        <v>4902934</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6971023897279304</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6857822833076256</v>
+        <v>0.6864398632584394</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7080582599916884</v>
+        <v>0.7095476963595942</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>94281</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78392</v>
+        <v>76462</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113232</v>
+        <v>113960</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.171226781938848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1423717768579766</v>
+        <v>0.138865012127505</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2056446857809618</v>
+        <v>0.2069680864052437</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -2524,19 +2524,19 @@
         <v>73164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60289</v>
+        <v>60020</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86006</v>
+        <v>86556</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1498010781325269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1234393336217636</v>
+        <v>0.1228874599545795</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1760944276666136</v>
+        <v>0.1772200009604445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>199</v>
@@ -2545,19 +2545,19 @@
         <v>167445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>147199</v>
+        <v>144490</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192393</v>
+        <v>189936</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1611553157485135</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1416696654963613</v>
+        <v>0.1390624041301081</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1851661999732196</v>
+        <v>0.1828014090109559</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>456337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>437386</v>
+        <v>436658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>472226</v>
+        <v>474156</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8287732180611521</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7943553142190377</v>
+        <v>0.7930319135947567</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8576282231420234</v>
+        <v>0.8611349878724951</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>581</v>
@@ -2595,19 +2595,19 @@
         <v>415247</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>402405</v>
+        <v>401855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>428122</v>
+        <v>428391</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8501989218674733</v>
+        <v>0.8501989218674731</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8239055723333865</v>
+        <v>0.8227799990395555</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8765606663782364</v>
+        <v>0.8771125400454201</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1041</v>
@@ -2616,19 +2616,19 @@
         <v>871584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>846636</v>
+        <v>849093</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>891830</v>
+        <v>894539</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8388446842514865</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.814833800026781</v>
+        <v>0.8171985909890442</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8583303345036389</v>
+        <v>0.8609375958698919</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>94800</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78688</v>
+        <v>78808</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114610</v>
+        <v>113215</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1961861569283478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1628441124636882</v>
+        <v>0.1630920433306655</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2371836447012695</v>
+        <v>0.2342968903335168</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>123</v>
@@ -2741,19 +2741,19 @@
         <v>92509</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77014</v>
+        <v>78106</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108789</v>
+        <v>108809</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2186239198074515</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1820043126535989</v>
+        <v>0.1845862695999857</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2570983278253459</v>
+        <v>0.2571445015029046</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>211</v>
@@ -2762,19 +2762,19 @@
         <v>187309</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162357</v>
+        <v>163515</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210604</v>
+        <v>211248</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2066614993867192</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1791318619720282</v>
+        <v>0.1804089664308446</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2323642386399101</v>
+        <v>0.2330737760245352</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>388412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368602</v>
+        <v>369997</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>404524</v>
+        <v>404404</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8038138430716522</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7628163552987307</v>
+        <v>0.765703109666483</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8371558875363118</v>
+        <v>0.8369079566693346</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>467</v>
@@ -2812,19 +2812,19 @@
         <v>330634</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>314354</v>
+        <v>314334</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>346129</v>
+        <v>345037</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7813760801925485</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.742901672174654</v>
+        <v>0.7428554984970953</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8179956873464012</v>
+        <v>0.8154137304000143</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>860</v>
@@ -2833,19 +2833,19 @@
         <v>719046</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>695751</v>
+        <v>695107</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>743998</v>
+        <v>742840</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7933385006132809</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7676357613600896</v>
+        <v>0.7669262239754646</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8208681380279719</v>
+        <v>0.8195910335691552</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>127614</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107161</v>
+        <v>106076</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148470</v>
+        <v>147544</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2705918526056845</v>
+        <v>0.2705918526056844</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2272229365835992</v>
+        <v>0.2249211866667807</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.31481476426292</v>
+        <v>0.3128495886447862</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -2958,19 +2958,19 @@
         <v>27334</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20319</v>
+        <v>19727</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36240</v>
+        <v>34998</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1457810358470659</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1083705541519043</v>
+        <v>0.1052147273289972</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1932822742185745</v>
+        <v>0.1866576475843667</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>164</v>
@@ -2979,19 +2979,19 @@
         <v>154948</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134514</v>
+        <v>133453</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176259</v>
+        <v>181158</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2350868158437849</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2040848162422703</v>
+        <v>0.2024749095066451</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2674206677893852</v>
+        <v>0.2748522885217063</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>343998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>323142</v>
+        <v>324068</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>364451</v>
+        <v>365536</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7294081473943157</v>
+        <v>0.7294081473943156</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.68518523573708</v>
+        <v>0.6871504113552137</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7727770634164006</v>
+        <v>0.7750788133332193</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>246</v>
@@ -3029,19 +3029,19 @@
         <v>160163</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151257</v>
+        <v>152499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167178</v>
+        <v>167770</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8542189641529342</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8067177257814255</v>
+        <v>0.8133423524156332</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8916294458480959</v>
+        <v>0.8947852726710027</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>613</v>
@@ -3050,19 +3050,19 @@
         <v>504161</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>482850</v>
+        <v>477951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>524595</v>
+        <v>525656</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.764913184156215</v>
+        <v>0.7649131841562151</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7325793322106148</v>
+        <v>0.7251477114782945</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.79591518375773</v>
+        <v>0.7975250904933554</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>363291</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>330199</v>
+        <v>329779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>398042</v>
+        <v>400010</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.320972799562118</v>
+        <v>0.3209727995621179</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2917359657073365</v>
+        <v>0.2913650336980392</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3516763294620143</v>
+        <v>0.3534148539699835</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>305</v>
@@ -3175,19 +3175,19 @@
         <v>231688</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>207886</v>
+        <v>207215</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>255481</v>
+        <v>253699</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2692450329252407</v>
+        <v>0.2692450329252408</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2415850077095746</v>
+        <v>0.2408051799185284</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2968948628299012</v>
+        <v>0.2948241074603569</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>625</v>
@@ -3196,19 +3196,19 @@
         <v>594979</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>551791</v>
+        <v>555964</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>641351</v>
+        <v>642104</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2986312631130942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2769546682296469</v>
+        <v>0.2790490272545754</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3219064650744839</v>
+        <v>0.3222844300436777</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>768552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>733801</v>
+        <v>731833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>801644</v>
+        <v>802064</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.679027200437882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6483236705379858</v>
+        <v>0.6465851460300166</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7082640342926634</v>
+        <v>0.7086349663019608</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>924</v>
@@ -3246,19 +3246,19 @@
         <v>628821</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>605028</v>
+        <v>606810</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>652623</v>
+        <v>653294</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7307549670747592</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7031051371700987</v>
+        <v>0.7051758925396432</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7584149922904254</v>
+        <v>0.7591948200814719</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1722</v>
@@ -3267,19 +3267,19 @@
         <v>1397373</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1351001</v>
+        <v>1350248</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1440561</v>
+        <v>1436388</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7013687368869057</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6780935349255162</v>
+        <v>0.6777155699563224</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7230453317703532</v>
+        <v>0.7209509727454245</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>183585</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>158018</v>
+        <v>160186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>208485</v>
+        <v>209862</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3238501298741669</v>
+        <v>0.3238501298741668</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2787496938133999</v>
+        <v>0.2825743299469775</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3677747161485441</v>
+        <v>0.3702036713694769</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>247</v>
@@ -3392,19 +3392,19 @@
         <v>174095</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>154732</v>
+        <v>155344</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>196000</v>
+        <v>195624</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2097164804320239</v>
+        <v>0.209716480432024</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1863914940902685</v>
+        <v>0.1871293271847327</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2361031524780661</v>
+        <v>0.235650790091775</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>412</v>
@@ -3413,19 +3413,19 @@
         <v>357680</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>327197</v>
+        <v>326504</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>391574</v>
+        <v>391534</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2560293394691876</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2342098362416222</v>
+        <v>0.2337138485848881</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2802912704653012</v>
+        <v>0.2802625562354043</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>383297</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>358397</v>
+        <v>357020</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>408864</v>
+        <v>406696</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6761498701258332</v>
+        <v>0.6761498701258329</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6322252838514559</v>
+        <v>0.629796328630523</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7212503061866001</v>
+        <v>0.7174256700530226</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1042</v>
@@ -3463,19 +3463,19 @@
         <v>656050</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>634145</v>
+        <v>634521</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>675413</v>
+        <v>674801</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.790283519567976</v>
+        <v>0.7902835195679762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7638968475219339</v>
+        <v>0.7643492099082249</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8136085059097315</v>
+        <v>0.8128706728152673</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1423</v>
@@ -3484,19 +3484,19 @@
         <v>1039346</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1005452</v>
+        <v>1005492</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1069829</v>
+        <v>1070522</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7439706605308124</v>
+        <v>0.7439706605308123</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.719708729534699</v>
+        <v>0.7197374437645958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7657901637583779</v>
+        <v>0.7662861514151115</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>26975</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14641</v>
+        <v>13967</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45728</v>
+        <v>46216</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1142590443645859</v>
+        <v>0.114259044364586</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06201658230763438</v>
+        <v>0.05916052856136153</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1936933698044618</v>
+        <v>0.1957596583610151</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>108</v>
@@ -3609,19 +3609,19 @@
         <v>91571</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73566</v>
+        <v>75042</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>112003</v>
+        <v>112630</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1084608748895738</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08713501366722799</v>
+        <v>0.08888222522834556</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1326602774586986</v>
+        <v>0.1334032026113781</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>121</v>
@@ -3630,19 +3630,19 @@
         <v>118546</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95440</v>
+        <v>97584</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146820</v>
+        <v>143659</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1097279138348346</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08834054362663718</v>
+        <v>0.09032473545945419</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1358985491727367</v>
+        <v>0.1329724227716281</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>209111</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>190358</v>
+        <v>189870</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>221445</v>
+        <v>222119</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.885740955635414</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8063066301955384</v>
+        <v>0.8042403416389849</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9379834176923659</v>
+        <v>0.9408394714386384</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1051</v>
@@ -3680,19 +3680,19 @@
         <v>752710</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>732278</v>
+        <v>731651</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>770715</v>
+        <v>769239</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8915391251104262</v>
+        <v>0.8915391251104263</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8673397225413015</v>
+        <v>0.8665967973886219</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9128649863327719</v>
+        <v>0.9111177747716548</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1149</v>
@@ -3701,19 +3701,19 @@
         <v>961821</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>933547</v>
+        <v>936708</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>984927</v>
+        <v>982783</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8902720861651656</v>
+        <v>0.8902720861651655</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8641014508272635</v>
+        <v>0.8670275772283719</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9116594563733627</v>
+        <v>0.9096752645405456</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>890545</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>828532</v>
+        <v>834546</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>948515</v>
+        <v>950739</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.258860309757089</v>
+        <v>0.2588603097570889</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2408346845926926</v>
+        <v>0.2425827789116432</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2757109156157955</v>
+        <v>0.2763574877132426</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>931</v>
@@ -3826,19 +3826,19 @@
         <v>690361</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>651258</v>
+        <v>648524</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>738540</v>
+        <v>731057</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1899736210668142</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1792130839496117</v>
+        <v>0.1784608564891048</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2032313780455477</v>
+        <v>0.2011722449687611</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1732</v>
@@ -3847,19 +3847,19 @@
         <v>1580906</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1513947</v>
+        <v>1518599</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1662259</v>
+        <v>1666814</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2234737123528245</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2140085589020456</v>
+        <v>0.214666137961023</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2349735691417016</v>
+        <v>0.235617538074142</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>2549707</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2491737</v>
+        <v>2489513</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2611720</v>
+        <v>2605706</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.741139690242911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7242890843842044</v>
+        <v>0.7236425122867572</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7591653154073073</v>
+        <v>0.7574172210883565</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4311</v>
@@ -3897,19 +3897,19 @@
         <v>2943624</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2895445</v>
+        <v>2902928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2982727</v>
+        <v>2985461</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8100263789331859</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7967686219544525</v>
+        <v>0.7988277550312389</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8207869160503884</v>
+        <v>0.8215391435108953</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6808</v>
@@ -3918,19 +3918,19 @@
         <v>5493331</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5411978</v>
+        <v>5407423</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5560290</v>
+        <v>5555638</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7765262876471755</v>
+        <v>0.7765262876471757</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7650264308582984</v>
+        <v>0.7643824619258582</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7859914410979543</v>
+        <v>0.7853338620389767</v>
       </c>
     </row>
     <row r="24">
